--- a/medicine/Psychotrope/SherBroue/SherBroue.xlsx
+++ b/medicine/Psychotrope/SherBroue/SherBroue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">SherBroue est le regroupement brassicole étudiant de l'Université de Sherbrooke.
 Fondé en 1998, SherBroue est un groupe technique universitaire sans but lucratif. Depuis ses débuts, SherBroue a participé à la formation de plus de 300 étudiants au brassage de la bière. Le groupe technique a permis à plusieurs étudiants de faire carrière dans le domaine brassicole. En plus de créer des liens entre les différents départements et promotions, SherBroue permet de mettre en pratique et d’approfondir des connaissances dans les domaines du génie chimique, biotechnologique, mécanique, informatique et électrique.
@@ -512,7 +524,9 @@
           <t>Associations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En avril 2007, la Régie des Alcools, des Courses et des Jeux (RACJ) du Québec a strictement interdit la fabrication de tout produit alcoolisé en milieu scolaire. Ces complications légales ont amené SherBroue à créer l’Association Brassicole Étudiante du Québec (ABEQ). Ralliant les groupes Microbroue et la Microbrasserie Universitaire Brassta de l’Université Laval, ainsi que PolyBroue de l’École Polytechnique de Montréal à la cause brassicole étudiante. Au Québec, trois statuts brassicoles existent : brasserie artisanale, microbrasserie et brasserie industrielle. Les groupes universitaires concernés se sont regroupés afin de mettre en commun leurs revendications visant la création d'un nouveau statut de brassage en milieu académique.
 Depuis la création du regroupement, les groupes membres de l'ABEQ ont présenté leurs divers projets et revendications à la population pour l'informer de leur situation. Des présentations de kiosques à des salons étudiants, des partenariats avec des microbrasseries, des visites industrielles ou l'organisation d'évènements sont quelques-unes des actions faites par les membres l'association afin de se faire connaître.
@@ -547,7 +561,9 @@
           <t>Projets</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>SherBroue agit comme groupe multidisciplinaire et ce, au cœur de la faculté de génie de l'Université de Sherbrooke. Plusieurs projets communs ralliant tous les domaines du génie y sont constamment en évolution. Le groupe supporte entre autres l’innovation et le développement de nouvelles méthodes, ainsi que l’amélioration du matériel de brassage amateur et industriel.
 D'autres projets :
@@ -592,7 +608,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Avenir, Affaires et vie économique (Force Avenir 1998)
 Prix d’honneur catégorie Affaires et Vie économique (Gala défi étudiant 2001)
@@ -625,7 +643,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La SherLoup, American Pale Ale (5,5 %)
 La Pétrole, American Stout (5,5 %) ou Russian Imperial Stout (9 %)
